--- a/Completed Projects/Riazeda/VO/Summary of VOs.xlsx
+++ b/Completed Projects/Riazeda/VO/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D89643-B63D-418C-9C2A-98DD06029D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B54B52A-E55B-4549-8D6D-67AAAF4C47C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -752,7 +752,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45349</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">

--- a/Completed Projects/Riazeda/VO/Summary of VOs.xlsx
+++ b/Completed Projects/Riazeda/VO/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B54B52A-E55B-4549-8D6D-67AAAF4C47C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5701CC4D-352F-429F-A4F6-664D8E494D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,18 +12,16 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Sr #</t>
   </si>
@@ -52,9 +50,6 @@
     <t>Summary of Variation Orders</t>
   </si>
   <si>
-    <t>Variation order for blyglod coating</t>
-  </si>
-  <si>
     <t>Variation order for ducting and fans</t>
   </si>
   <si>
@@ -322,13 +317,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>113550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -393,53 +388,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="38">
-          <cell r="H38">
-            <v>272650</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
         <row r="33">
           <cell r="H33">
-            <v>630000</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="33">
-          <cell r="H33">
-            <v>435000</v>
+            <v>810000</v>
           </cell>
         </row>
       </sheetData>
@@ -735,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:E30"/>
+  <dimension ref="A7:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -752,7 +703,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45463</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
@@ -798,11 +749,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="17">
-        <f>[1]Sheet1!$H$38</f>
-        <v>272650</v>
+        <v>369300</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -810,24 +760,17 @@
         <v>2</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="17">
-        <f>[2]Sheet1!$H$33</f>
-        <v>630000</v>
+        <f>[1]Sheet1!$H$33</f>
+        <v>810000</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="17">
-        <f>[3]Sheet1!$H$33</f>
-        <v>435000</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
@@ -837,7 +780,7 @@
     <row r="20" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
@@ -854,40 +797,35 @@
       <c r="B23" s="16"/>
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21" t="s">
+    <row r="24" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="22">
-        <f>SUM(C16:C25)</f>
-        <v>1337650</v>
-      </c>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="29" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="10"/>
+      <c r="C25" s="22">
+        <f>SUM(C16:C24)</f>
+        <v>1179300</v>
+      </c>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="28" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
